--- a/Results - Cluster 2.xlsx
+++ b/Results - Cluster 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/CST4599 Thesis/CST4599/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C0F4FD-7FC3-FA4C-A63C-B99278D99F3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F320E86-7811-5B47-B6C0-8A4712631874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="4 Weaker Active Workers" sheetId="9" r:id="rId4"/>
     <sheet name="5 Weaker Active Workers" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="23">
   <si>
     <t>File Size</t>
   </si>
@@ -88,6 +88,21 @@
   <si>
     <t>Query Execution Times of Various File Sizes &amp; Formats in HiveSQL
 (5 Weaker Active Workers with 8GB Master Node and 4GB Worker Nodes)</t>
+  </si>
+  <si>
+    <t>1 GB</t>
+  </si>
+  <si>
+    <t>10 GB</t>
+  </si>
+  <si>
+    <t>15 GB</t>
+  </si>
+  <si>
+    <t>Textfile</t>
+  </si>
+  <si>
+    <t>ORC</t>
   </si>
 </sst>
 </file>
@@ -204,24 +219,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,10 +234,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,7 +385,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Query Execution Times on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
+              <a:t>Query Execution Time on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
@@ -378,7 +396,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(1 Worker Node)</a:t>
+              <a:t>(1 Data Node)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -400,16 +418,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1287,7 +1302,1121 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Query Execution Time on Datasets Stored in ORC &amp; Parquet File Formats in Hive (5 Data Nodes) Cluster 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 Weaker Active Workers'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Textfile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 Weaker Active Workers'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33.640799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.56140000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.56019999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>354.738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-258B-C641-90A7-E988E280346F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 Weaker Active Workers'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 Weaker Active Workers'!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.933400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.336599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.385000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-258B-C641-90A7-E988E280346F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="785703648"/>
+        <c:axId val="1145240304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="785703648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Dataset Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41853346456692914"/>
+              <c:y val="0.80422244094488193"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145240304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1145240304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Execution time (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.16643518518518521"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785703648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Query Execution Time on Datasets Stored in ORC &amp; Parquet File Formats in Hive (1 Data Node) Cluster 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Weaker Active Worker '!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Textfile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1 Weaker Active Worker '!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Weaker Active Worker '!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.59740000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435.66939999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-334E-7242-8A2D-8C79BD06C0A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 Weaker Active Worker '!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1 Weaker Active Worker '!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 Weaker Active Worker '!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.686199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.469000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.113399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.2414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-334E-7242-8A2D-8C79BD06C0A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="804991296"/>
+        <c:axId val="801269968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="804991296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Dataset Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40140157480314959"/>
+              <c:y val="0.79753280839895013"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="801269968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="801269968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t> time (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.13402777777777777"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804991296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1338,7 +2467,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Query Execution Times on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
+              <a:t>Query Execution Time on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
@@ -1349,7 +2478,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(2 Worker Nodes)</a:t>
+              <a:t>(2 Data Nodes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -2228,7 +3357,564 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Query Execution Time on Datasets Stored in ORC &amp; Parquet File Formats in Hive (2 Data Nodes) Cluster 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 Weaker Active Workers'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Textfile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 Weaker Active Workers'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.201999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.51680000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220.85680000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>331.34520000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93AA-9A44-9BF9-0E9670395C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 Weaker Active Workers'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 Weaker Active Workers'!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.506800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.687200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.718199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.8184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93AA-9A44-9BF9-0E9670395C24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="817599632"/>
+        <c:axId val="817601312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="817599632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4146723534558181"/>
+              <c:y val="0.80216243802857956"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817601312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="817601312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Execution time (in seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.14328703703703705"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817599632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2279,7 +3965,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Query Execution Times on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
+              <a:t>Query Execution Time on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
@@ -2290,7 +3976,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(3 Worker Nodes)</a:t>
+              <a:t>(3 Data Nodes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -3169,7 +4855,564 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Query Execution Time on Datasets Stored in ORC &amp; Parquet File Formats in Hive (3 Data Nodes) Cluster 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 Weaker Active Workers'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Textfile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 Weaker Active Workers'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.845399999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.23299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.53320000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337.14160000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09DF-E54F-BD1C-B122453E84FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 Weaker Active Workers'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 Weaker Active Workers'!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.9024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.272000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.507599999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.4102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09DF-E54F-BD1C-B122453E84FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="835517072"/>
+        <c:axId val="835171152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="835517072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Data Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42704046369203852"/>
+              <c:y val="0.78364391951006129"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835171152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="835171152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t> times (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.14328703703703705"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835517072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3220,7 +5463,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Query Execution Times on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
+              <a:t>Query Execution Time on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
@@ -3231,7 +5474,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(4 Worker Nodes)</a:t>
+              <a:t>(4 Data Nodes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -4110,7 +6353,569 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Query Execution Time on Datasets Stored in ORC &amp; Parquet File Formats in Hive (4 Data Nodes) Cluster 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 Weaker Active Workers'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Textfile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 Weaker Active Workers'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33.853200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.7578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>362.94400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A93E-F740-8D10-B16328E18544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 Weaker Active Workers'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4 Weaker Active Workers'!$B$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 GB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 Weaker Active Workers'!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.287600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.144799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.564800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.42619999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A93E-F740-8D10-B16328E18544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="735890800"/>
+        <c:axId val="735663792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="735890800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Dataset Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37272790901137359"/>
+              <c:y val="0.77644466316710414"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735663792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="735663792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Execution time (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.18032407407407411"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735890800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4161,7 +6966,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Query Execution Times on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
+              <a:t>Query Execution Time on Varying Dataset Size &amp; File Formats in HiveQL</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
@@ -4172,7 +6977,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(5 Worker Node)</a:t>
+              <a:t>(5 Data Nodes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -5091,6 +7896,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5251,6 +8096,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5754,7 +8759,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6257,7 +9262,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6760,7 +9765,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7263,7 +10268,2522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7799,6 +13319,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7055</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>799294</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121759</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C602986-CDA1-DC41-A8F9-E124CCA5322F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7845,6 +13401,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470477</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>18665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1126644</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>135274</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36A6BC4-C6B6-854B-B352-907C5B039A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7881,6 +13473,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>970280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1031240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AE4F96-EA5D-6243-90FC-9EB62699AF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7927,6 +13555,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>980440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF612D7-DFF9-0D46-AB95-58779BCBDD38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7963,6 +13627,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED99281-9B6C-1A46-BA85-4C3E513A9400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8268,10 +13968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8285,305 +13985,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>23.925999999999998</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0.40899999999999997</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>85.900999999999996</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>166.99</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>253.702</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>21.623999999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>5.5380000000000003</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>87.942999999999998</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>15.545</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>169.85599999999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>28.556999999999999</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>373.8</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>41.545000000000002</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>21.648</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>2.5059999999999998</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>87.817999999999998</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>3.5049999999999999</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>169.53200000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>4.5179999999999998</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>287.05</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>5.54</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>21.57</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>2.48</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>87.832999999999998</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>5.5369999999999999</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>223.26400000000001</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>8.5069999999999997</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>346.73700000000002</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>12.529</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>76.641999999999996</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>47.497999999999998</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>313.49200000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>192.667</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>606.39300000000003</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>373.89600000000002</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>917.05799999999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>566.49199999999996</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(C4,C8,C12,C16,C20)</f>
+        <v>33.082000000000001</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C5,C9,C13,C17,C21)</f>
+        <v>132.59740000000002</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(C6,C10,C14,C18,C22)</f>
+        <v>267.20699999999999</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(C7,C11,C15,C19,C23)</f>
+        <v>435.66939999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(D4,D8,D12,D16,D20)</f>
+        <v>11.686199999999999</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(D5,D9,D13,D17,D21)</f>
+        <v>43.469000000000001</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D6,D10,D14,D18,D22)</f>
+        <v>83.113399999999999</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(D7,D11,D15,D19,D23)</f>
+        <v>125.2414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
+        <f>(B28-B27)/B27</f>
+        <v>-0.64675049876065538</v>
+      </c>
+      <c r="C29" s="11">
+        <f>(C28-C27)/C27</f>
+        <v>-0.67217305920025594</v>
+      </c>
+      <c r="D29" s="11">
+        <f>(D28-D27)/D27</f>
+        <v>-0.68895500492127826</v>
+      </c>
+      <c r="E29" s="11">
+        <f>(E28-E27)/E27</f>
+        <v>-0.71253110730292279</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8607,10 +14381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView topLeftCell="A10" zoomScale="132" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8624,305 +14398,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>22.545000000000002</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>63.634999999999998</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>132.93299999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>195.44399999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>17.707999999999998</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>5.5579999999999998</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>67.813000000000002</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>15.523999999999999</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>129.351</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>28.524999999999999</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>203.67500000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>41.594000000000001</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>15.598000000000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>2.5270000000000001</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>70.766000000000005</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>3.5289999999999999</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>127.33499999999999</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>4.5279999999999996</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>190.26300000000001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>6.4980000000000002</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>16.524999999999999</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>2.4950000000000001</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>68.775000000000006</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>5.524</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>132.42099999999999</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>9.4920000000000009</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>186.584</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>13.536</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>73.634</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>46.572000000000003</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>301.59500000000003</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>193.726</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>582.24400000000003</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>375.95499999999998</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>880.76</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>547.37199999999996</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(C4,C8,C12,C16,C20)</f>
+        <v>29.201999999999998</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C5,C9,C13,C17,C21)</f>
+        <v>114.51680000000002</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(C6,C10,C14,C18,C22)</f>
+        <v>220.85680000000002</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(C7,C11,C15,C19,C23)</f>
+        <v>331.34520000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(D4,D8,D12,D16,D20)</f>
+        <v>11.506800000000002</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(D5,D9,D13,D17,D21)</f>
+        <v>43.687200000000004</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D6,D10,D14,D18,D22)</f>
+        <v>83.718199999999996</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(D7,D11,D15,D19,D23)</f>
+        <v>121.8184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
+        <f>(B28-B27)/B27</f>
+        <v>-0.60595849599342499</v>
+      </c>
+      <c r="C29" s="11">
+        <f>(C28-C27)/C27</f>
+        <v>-0.61850837606359943</v>
+      </c>
+      <c r="D29" s="11">
+        <f>(D28-D27)/D27</f>
+        <v>-0.62093899757671034</v>
+      </c>
+      <c r="E29" s="11">
+        <f>(E28-E27)/E27</f>
+        <v>-0.63235200027041294</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8946,10 +14794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8963,305 +14811,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>25.725999999999999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0.39400000000000002</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>63.628999999999998</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>124.476</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>180.50299999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>0.122</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>17.687000000000001</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>6.5289999999999999</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>59.893000000000001</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>18.542999999999999</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>123.372</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>32.530999999999999</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>199.33099999999999</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>45.563000000000002</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>13.654</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>2.5219999999999998</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>60.759</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>4.5199999999999996</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>118.336</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>7.5369999999999999</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>177.22200000000001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>7.4939999999999998</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>16.55</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>3.516</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>63.78</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>7.5110000000000001</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>118.325</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>13.547000000000001</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>186.39400000000001</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>19.521999999999998</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>75.61</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>46.551000000000002</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>318.10399999999998</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>195.68700000000001</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>633.15700000000004</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>373.80399999999997</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>942.25800000000004</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>569.35</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(C4,C8,C12,C16,C20)</f>
+        <v>29.845399999999994</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C5,C9,C13,C17,C21)</f>
+        <v>113.23299999999999</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(C6,C10,C14,C18,C22)</f>
+        <v>223.53320000000002</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(C7,C11,C15,C19,C23)</f>
+        <v>337.14160000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(D4,D8,D12,D16,D20)</f>
+        <v>11.9024</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(D5,D9,D13,D17,D21)</f>
+        <v>45.272000000000006</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D6,D10,D14,D18,D22)</f>
+        <v>85.507599999999996</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(D7,D11,D15,D19,D23)</f>
+        <v>128.4102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
+        <f>(B28-B27)/B27</f>
+        <v>-0.60119817459306957</v>
+      </c>
+      <c r="C29" s="11">
+        <f>(C28-C27)/C27</f>
+        <v>-0.60018722457234186</v>
+      </c>
+      <c r="D29" s="11">
+        <f>(D28-D27)/D27</f>
+        <v>-0.61747248283476464</v>
+      </c>
+      <c r="E29" s="11">
+        <f>(E28-E27)/E27</f>
+        <v>-0.6191208679083211</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9285,10 +15207,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9302,305 +15224,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>27.62</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0.36299999999999999</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>79.647000000000006</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>0.106</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>175.13399999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>0.126</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>228.87200000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>23.658999999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>5.5369999999999999</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>85.87</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>16.52</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>171.59</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>31.52</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>232.53100000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>46.585999999999999</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>24.634</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>84.802000000000007</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>4.5220000000000002</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>149.465</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>5.5410000000000004</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>227.542</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>8.7140000000000004</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>17.555</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>3.492</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>77.832999999999998</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>7.51</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>147.489</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>11.507999999999999</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>214.642</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>17.536000000000001</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>75.798000000000002</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>49.555999999999997</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>330.637</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>187.066</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>603.36199999999997</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>354.12900000000002</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>911.13300000000004</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>529.21299999999997</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(C4,C8,C12,C16,C20)</f>
+        <v>33.853200000000001</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C5,C9,C13,C17,C21)</f>
+        <v>131.7578</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(C6,C10,C14,C18,C22)</f>
+        <v>249.40799999999999</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(C7,C11,C15,C19,C23)</f>
+        <v>362.94400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(D4,D8,D12,D16,D20)</f>
+        <v>12.287600000000001</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(D5,D9,D13,D17,D21)</f>
+        <v>43.144799999999996</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D6,D10,D14,D18,D22)</f>
+        <v>80.564800000000005</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(D7,D11,D15,D19,D23)</f>
+        <v>120.42619999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
+        <f>(B28-B27)/B27</f>
+        <v>-0.63703283589143711</v>
+      </c>
+      <c r="C29" s="11">
+        <f>(C28-C27)/C27</f>
+        <v>-0.67254462354410893</v>
+      </c>
+      <c r="D29" s="11">
+        <f>(D28-D27)/D27</f>
+        <v>-0.6769758788811906</v>
+      </c>
+      <c r="E29" s="11">
+        <f>(E28-E27)/E27</f>
+        <v>-0.66819619555633936</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9624,319 +15620,394 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.33203125"/>
+    <col min="1" max="1" width="8.33203125"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="5" width="25.83203125"/>
     <col min="6" max="1025" width="8.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>28.626000000000001</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>66.656000000000006</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>143.261</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>199.49100000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>0.106</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>14.673999999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>5.5609999999999999</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>71.850999999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>17.54</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>134.405</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>30.547000000000001</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>228.49199999999999</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>46.575000000000003</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>22.683</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>2.516</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>79.825999999999993</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>4.7130000000000001</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>144.41800000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>6.6449999999999996</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>224.51900000000001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>9.6029999999999998</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>27.548999999999999</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>3.5630000000000002</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>76.792000000000002</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>8.5969999999999995</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>150.47800000000001</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>12.601000000000001</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>208.523</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>21.58</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>74.671999999999997</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>47.612000000000002</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>307.68200000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>190.73599999999999</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>620.23900000000003</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>362.03399999999999</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>912.66499999999996</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>550.13099999999997</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(C4,C8,C12,C16,C20)</f>
+        <v>33.640799999999999</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C5,C9,C13,C17,C21)</f>
+        <v>120.56140000000001</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(C6,C10,C14,C18,C22)</f>
+        <v>238.56019999999998</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(C7,C11,C15,C19,C23)</f>
+        <v>354.738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(D4,D8,D12,D16,D20)</f>
+        <v>11.933400000000001</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(D5,D9,D13,D17,D21)</f>
+        <v>44.336599999999997</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D6,D10,D14,D18,D22)</f>
+        <v>82.385000000000005</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(D7,D11,D15,D19,D23)</f>
+        <v>125.599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="11">
+        <f>(B28-B27)/B27</f>
+        <v>-0.64527002925019616</v>
+      </c>
+      <c r="C29" s="11">
+        <f>(C28-C27)/C27</f>
+        <v>-0.63224879604915019</v>
+      </c>
+      <c r="D29" s="11">
+        <f>(D28-D27)/D27</f>
+        <v>-0.65465739884523899</v>
+      </c>
+      <c r="E29" s="11">
+        <f>(E28-E27)/E27</f>
+        <v>-0.64593869278171501</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
